--- a/data/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/data/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -757,7 +757,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -905,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">

--- a/data/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/data/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="302">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>2.380</t>
@@ -88,7 +88,7 @@
     <t>3.100</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>1.160</t>
@@ -103,7 +103,7 @@
     <t>15.000</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>1.630</t>
@@ -118,7 +118,7 @@
     <t>46.000</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -133,7 +133,7 @@
     <t>0.0800</t>
   </si>
   <si>
-    <t>34</t>
+    <t>34.0</t>
   </si>
   <si>
     <t>0.6190</t>
@@ -148,7 +148,7 @@
     <t>2.200</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>0.0180</t>
@@ -166,7 +166,7 @@
     <t>4.800</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.0040</t>
@@ -178,7 +178,7 @@
     <t>21.000</t>
   </si>
   <si>
-    <t>49</t>
+    <t>49.0</t>
   </si>
   <si>
     <t>2.8100</t>
@@ -205,7 +205,7 @@
     <t>2.400</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>2000.0</t>
   </si>
   <si>
     <t>0.3930</t>
@@ -220,7 +220,7 @@
     <t>18.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>0.0050</t>
@@ -238,7 +238,7 @@
     <t>43.000</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>4.720</t>
@@ -250,7 +250,7 @@
     <t>0.1000</t>
   </si>
   <si>
-    <t>64</t>
+    <t>64.0</t>
   </si>
   <si>
     <t>1.0100</t>
@@ -262,7 +262,7 @@
     <t>0.1350</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>8.310</t>
@@ -298,7 +298,7 @@
     <t>183.000</t>
   </si>
   <si>
-    <t>140</t>
+    <t>140.0</t>
   </si>
   <si>
     <t>8.430</t>
@@ -331,7 +331,7 @@
     <t>3.800</t>
   </si>
   <si>
-    <t>58</t>
+    <t>58.0</t>
   </si>
   <si>
     <t>1.390</t>
@@ -346,7 +346,7 @@
     <t>0.0100</t>
   </si>
   <si>
-    <t>460</t>
+    <t>460.0</t>
   </si>
   <si>
     <t>8.750</t>
@@ -415,7 +415,7 @@
     <t>47.000</t>
   </si>
   <si>
-    <t>70</t>
+    <t>70.0</t>
   </si>
   <si>
     <t>8.250</t>
@@ -436,7 +436,7 @@
     <t>0.0630</t>
   </si>
   <si>
-    <t>59</t>
+    <t>59.0</t>
   </si>
   <si>
     <t>8.150</t>
@@ -475,6 +475,9 @@
     <t>14.000</t>
   </si>
   <si>
+    <t>16.4</t>
+  </si>
+  <si>
     <t>7.800</t>
   </si>
   <si>
@@ -538,7 +541,7 @@
     <t>35.000</t>
   </si>
   <si>
-    <t>78</t>
+    <t>78.0</t>
   </si>
   <si>
     <t>7.760</t>
@@ -559,7 +562,7 @@
     <t>2.900</t>
   </si>
   <si>
-    <t>100</t>
+    <t>100.0</t>
   </si>
   <si>
     <t>7.070</t>
@@ -580,7 +583,7 @@
     <t>0.1540</t>
   </si>
   <si>
-    <t>270</t>
+    <t>270.4</t>
   </si>
   <si>
     <t>7.450</t>
@@ -595,7 +598,7 @@
     <t>17.000</t>
   </si>
   <si>
-    <t>395</t>
+    <t>394.8</t>
   </si>
   <si>
     <t>7.470</t>
@@ -631,7 +634,7 @@
     <t>4.600</t>
   </si>
   <si>
-    <t>689</t>
+    <t>688.8</t>
   </si>
   <si>
     <t>8.110</t>
@@ -673,6 +676,9 @@
     <t>121.000</t>
   </si>
   <si>
+    <t>38.8</t>
+  </si>
+  <si>
     <t>9.160</t>
   </si>
   <si>
@@ -697,7 +703,7 @@
     <t>1.8700</t>
   </si>
   <si>
-    <t>383</t>
+    <t>383.2</t>
   </si>
   <si>
     <t>7.330</t>
@@ -715,6 +721,9 @@
     <t>0.3270</t>
   </si>
   <si>
+    <t>25.2</t>
+  </si>
+  <si>
     <t>7.940</t>
   </si>
   <si>
@@ -760,6 +769,9 @@
     <t>0.09800</t>
   </si>
   <si>
+    <t>33.6</t>
+  </si>
+  <si>
     <t>6.220</t>
   </si>
   <si>
@@ -778,7 +790,7 @@
     <t>0.0120</t>
   </si>
   <si>
-    <t>148</t>
+    <t>147.6</t>
   </si>
   <si>
     <t>8.580</t>
@@ -808,6 +820,54 @@
     <t>0.6200</t>
   </si>
   <si>
+    <t>0.1800</t>
+  </si>
+  <si>
+    <t>8.410</t>
+  </si>
+  <si>
+    <t>0.9900</t>
+  </si>
+  <si>
+    <t>0.06200</t>
+  </si>
+  <si>
+    <t>&lt;0.0500</t>
+  </si>
+  <si>
+    <t>8.350</t>
+  </si>
+  <si>
+    <t>0.0010</t>
+  </si>
+  <si>
+    <t>1.380</t>
+  </si>
+  <si>
+    <t>0.07200</t>
+  </si>
+  <si>
+    <t>102.4</t>
+  </si>
+  <si>
+    <t>7.990</t>
+  </si>
+  <si>
+    <t>1.330</t>
+  </si>
+  <si>
+    <t>6.59960</t>
+  </si>
+  <si>
+    <t>78.300</t>
+  </si>
+  <si>
+    <t>9.730</t>
+  </si>
+  <si>
+    <t>2.310</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -842,6 +902,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1218,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,13 +1330,13 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1293,13 +1356,13 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1319,13 +1382,13 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1345,10 +1408,10 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -1368,10 +1431,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -1391,13 +1454,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1417,13 +1480,13 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1443,13 +1506,13 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1469,10 +1532,10 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1492,10 +1555,10 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1515,13 +1578,13 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1541,13 +1604,13 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G13" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1567,13 +1630,13 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1593,10 +1656,10 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1616,10 +1679,10 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1639,13 +1702,13 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G17" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1665,13 +1728,13 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1691,13 +1754,13 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1717,13 +1780,13 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1743,10 +1806,10 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1766,10 +1829,10 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1789,13 +1852,13 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1815,13 +1878,13 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1841,13 +1904,13 @@
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G25" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1867,13 +1930,13 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G26" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1893,10 +1956,10 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1916,10 +1979,10 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1939,13 +2002,13 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1965,13 +2028,13 @@
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1991,13 +2054,13 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -2017,13 +2080,13 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -2043,10 +2106,10 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -2066,10 +2129,10 @@
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -2089,13 +2152,13 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -2115,13 +2178,13 @@
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -2141,13 +2204,13 @@
         <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -2167,13 +2230,13 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -2193,10 +2256,10 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -2216,10 +2279,10 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2239,13 +2302,13 @@
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2265,13 +2328,13 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2291,13 +2354,13 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G43" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2317,13 +2380,13 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F44" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G44" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2343,10 +2406,10 @@
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2366,10 +2429,10 @@
         <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F46" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2389,13 +2452,13 @@
         <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G47" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2415,13 +2478,13 @@
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G48" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2441,13 +2504,13 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G49" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2467,13 +2530,13 @@
         <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F50" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G50" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2493,10 +2556,10 @@
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2516,10 +2579,10 @@
         <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F52" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2539,13 +2602,13 @@
         <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2565,13 +2628,13 @@
         <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2591,13 +2654,13 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G55" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2617,13 +2680,13 @@
         <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G56" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2643,10 +2706,10 @@
         <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2666,10 +2729,10 @@
         <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2689,13 +2752,13 @@
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F59" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2715,13 +2778,13 @@
         <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G60" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2741,13 +2804,13 @@
         <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G61" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2767,13 +2830,13 @@
         <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G62" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2793,10 +2856,10 @@
         <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2816,10 +2879,10 @@
         <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F64" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2839,13 +2902,13 @@
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F65" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2865,13 +2928,13 @@
         <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G66" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2891,13 +2954,13 @@
         <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G67" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2917,13 +2980,13 @@
         <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F68" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G68" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2943,10 +3006,10 @@
         <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2966,10 +3029,10 @@
         <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2989,13 +3052,13 @@
         <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -3015,13 +3078,13 @@
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G72" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -3041,13 +3104,13 @@
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F73" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G73" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -3067,13 +3130,13 @@
         <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G74" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -3093,10 +3156,10 @@
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -3116,10 +3179,10 @@
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F76" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -3139,13 +3202,13 @@
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G77" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -3168,13 +3231,13 @@
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G78" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -3197,13 +3260,13 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G79" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3226,7 +3289,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
@@ -3252,13 +3315,13 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G81" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3281,10 +3344,10 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3307,10 +3370,10 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F83" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3333,13 +3396,13 @@
         <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F84" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G84" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3362,13 +3425,13 @@
         <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G85" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3391,13 +3454,13 @@
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F86" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G86" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3420,7 +3483,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G87" t="s">
         <v>8</v>
@@ -3446,13 +3509,13 @@
         <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F88" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G88" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3475,10 +3538,10 @@
         <v>89</v>
       </c>
       <c r="E89" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3501,10 +3564,10 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F90" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3527,7 +3590,7 @@
         <v>91</v>
       </c>
       <c r="G91" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3547,13 +3610,13 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F92" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G92" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3576,13 +3639,13 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F93" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G93" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H93">
         <v>500</v>
@@ -3605,13 +3668,13 @@
         <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F94" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G94" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3634,7 +3697,7 @@
         <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G95" t="s">
         <v>8</v>
@@ -3660,13 +3723,13 @@
         <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G96" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3689,10 +3752,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F97" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3715,10 +3778,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F98" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3741,13 +3804,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F99" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H99">
         <v>500</v>
@@ -3770,13 +3833,13 @@
         <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G100" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3799,13 +3862,13 @@
         <v>74</v>
       </c>
       <c r="E101" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F101" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G101" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3828,7 +3891,7 @@
         <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G102" t="s">
         <v>8</v>
@@ -3854,13 +3917,13 @@
         <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F103" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G103" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3883,10 +3946,10 @@
         <v>101</v>
       </c>
       <c r="E104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F104" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3909,10 +3972,10 @@
         <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F105" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3935,7 +3998,7 @@
         <v>103</v>
       </c>
       <c r="G106" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3955,13 +4018,13 @@
         <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F107" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3981,13 +4044,13 @@
         <v>104</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G108" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -4007,13 +4070,13 @@
         <v>105</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F109" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G109" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -4033,13 +4096,13 @@
         <v>35</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F110" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G110" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -4059,10 +4122,10 @@
         <v>106</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F111" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -4082,10 +4145,10 @@
         <v>107</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F112" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -4105,7 +4168,7 @@
         <v>108</v>
       </c>
       <c r="G113" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -4125,13 +4188,13 @@
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F114" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G114" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -4154,13 +4217,13 @@
         <v>93</v>
       </c>
       <c r="E115" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F115" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G115" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -4183,13 +4246,13 @@
         <v>110</v>
       </c>
       <c r="E116" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F116" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G116" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4212,7 +4275,7 @@
         <v>111</v>
       </c>
       <c r="E117" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G117" t="s">
         <v>8</v>
@@ -4238,13 +4301,13 @@
         <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F118" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G118" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4267,10 +4330,10 @@
         <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F119" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4293,10 +4356,10 @@
         <v>113</v>
       </c>
       <c r="E120" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F120" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4319,13 +4382,13 @@
         <v>114</v>
       </c>
       <c r="E121" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F121" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G121" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4348,13 +4411,13 @@
         <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G122" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4377,13 +4440,13 @@
         <v>29</v>
       </c>
       <c r="E123" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F123" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G123" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4406,7 +4469,7 @@
         <v>115</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -4432,13 +4495,13 @@
         <v>116</v>
       </c>
       <c r="E125" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F125" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G125" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4461,10 +4524,10 @@
         <v>117</v>
       </c>
       <c r="E126" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F126" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4487,10 +4550,10 @@
         <v>118</v>
       </c>
       <c r="E127" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F127" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4513,13 +4576,13 @@
         <v>119</v>
       </c>
       <c r="E128" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F128" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G128" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4542,13 +4605,13 @@
         <v>120</v>
       </c>
       <c r="E129" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F129" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G129" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4571,13 +4634,13 @@
         <v>39</v>
       </c>
       <c r="E130" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F130" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G130" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4600,7 +4663,7 @@
         <v>121</v>
       </c>
       <c r="E131" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4626,13 +4689,13 @@
         <v>122</v>
       </c>
       <c r="E132" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F132" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G132" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4655,10 +4718,10 @@
         <v>123</v>
       </c>
       <c r="E133" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F133" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4681,10 +4744,10 @@
         <v>124</v>
       </c>
       <c r="E134" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F134" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4707,7 +4770,7 @@
         <v>125</v>
       </c>
       <c r="G135" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4727,13 +4790,13 @@
         <v>126</v>
       </c>
       <c r="E136" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F136" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G136" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4756,13 +4819,13 @@
         <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G137" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4785,13 +4848,13 @@
         <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F138" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G138" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4814,7 +4877,7 @@
         <v>128</v>
       </c>
       <c r="E139" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G139" t="s">
         <v>8</v>
@@ -4840,13 +4903,13 @@
         <v>35</v>
       </c>
       <c r="E140" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G140" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4869,10 +4932,10 @@
         <v>129</v>
       </c>
       <c r="E141" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4895,10 +4958,10 @@
         <v>130</v>
       </c>
       <c r="E142" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F142" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4921,7 +4984,7 @@
         <v>131</v>
       </c>
       <c r="G143" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4941,13 +5004,13 @@
         <v>69</v>
       </c>
       <c r="E144" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F144" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G144" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4970,13 +5033,13 @@
         <v>132</v>
       </c>
       <c r="E145" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G145" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4999,13 +5062,13 @@
         <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G146" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -5028,7 +5091,7 @@
         <v>134</v>
       </c>
       <c r="E147" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G147" t="s">
         <v>8</v>
@@ -5054,13 +5117,13 @@
         <v>135</v>
       </c>
       <c r="E148" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G148" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -5083,10 +5146,10 @@
         <v>136</v>
       </c>
       <c r="E149" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -5109,10 +5172,10 @@
         <v>137</v>
       </c>
       <c r="E150" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -5135,7 +5198,7 @@
         <v>138</v>
       </c>
       <c r="G151" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -5155,13 +5218,13 @@
         <v>139</v>
       </c>
       <c r="E152" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G152" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -5184,13 +5247,13 @@
         <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G153" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -5213,13 +5276,13 @@
         <v>140</v>
       </c>
       <c r="E154" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G154" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -5242,7 +5305,7 @@
         <v>141</v>
       </c>
       <c r="E155" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G155" t="s">
         <v>8</v>
@@ -5268,13 +5331,13 @@
         <v>142</v>
       </c>
       <c r="E156" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F156" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G156" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5297,10 +5360,10 @@
         <v>143</v>
       </c>
       <c r="E157" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5323,10 +5386,10 @@
         <v>144</v>
       </c>
       <c r="E158" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5349,7 +5412,7 @@
         <v>145</v>
       </c>
       <c r="G159" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5369,13 +5432,13 @@
         <v>122</v>
       </c>
       <c r="E160" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F160" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G160" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5398,13 +5461,13 @@
         <v>146</v>
       </c>
       <c r="E161" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F161" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G161" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5427,13 +5490,13 @@
         <v>82</v>
       </c>
       <c r="E162" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F162" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G162" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5456,7 +5519,7 @@
         <v>147</v>
       </c>
       <c r="E163" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G163" t="s">
         <v>8</v>
@@ -5482,13 +5545,13 @@
         <v>148</v>
       </c>
       <c r="E164" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F164" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G164" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5511,10 +5574,10 @@
         <v>89</v>
       </c>
       <c r="E165" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F165" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5537,10 +5600,10 @@
         <v>149</v>
       </c>
       <c r="E166" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F166" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5563,7 +5626,7 @@
         <v>150</v>
       </c>
       <c r="G167" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5583,13 +5646,13 @@
         <v>151</v>
       </c>
       <c r="E168" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F168" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G168" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5612,13 +5675,13 @@
         <v>152</v>
       </c>
       <c r="E169" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F169" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G169" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5638,16 +5701,16 @@
         <v>44550.49097222222</v>
       </c>
       <c r="D170" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E170" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F170" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G170" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5667,10 +5730,10 @@
         <v>44550.49097222222</v>
       </c>
       <c r="D171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E171" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
@@ -5696,13 +5759,13 @@
         <v>35</v>
       </c>
       <c r="E172" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F172" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G172" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5722,13 +5785,13 @@
         <v>44550.49097222222</v>
       </c>
       <c r="D173" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E173" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F173" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5748,13 +5811,13 @@
         <v>44550.49097222222</v>
       </c>
       <c r="D174" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E174" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F174" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5774,10 +5837,10 @@
         <v>44580</v>
       </c>
       <c r="D175" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G175" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5797,13 +5860,13 @@
         <v>151</v>
       </c>
       <c r="E176" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F176" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G176" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5823,16 +5886,16 @@
         <v>44580.41666666666</v>
       </c>
       <c r="D177" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E177" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F177" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G177" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5855,13 +5918,13 @@
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F178" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G178" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5881,10 +5944,10 @@
         <v>44580.41666666666</v>
       </c>
       <c r="D179" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E179" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G179" t="s">
         <v>8</v>
@@ -5910,13 +5973,13 @@
         <v>35</v>
       </c>
       <c r="E180" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F180" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G180" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5936,13 +5999,13 @@
         <v>44580.41666666666</v>
       </c>
       <c r="D181" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E181" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F181" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5962,13 +6025,13 @@
         <v>44580.41666666666</v>
       </c>
       <c r="D182" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F182" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5988,10 +6051,10 @@
         <v>44602</v>
       </c>
       <c r="D183" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G183" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -6008,16 +6071,16 @@
         <v>44602.40833333333</v>
       </c>
       <c r="D184" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E184" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F184" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G184" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -6037,16 +6100,16 @@
         <v>44602.40833333333</v>
       </c>
       <c r="D185" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E185" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F185" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G185" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -6069,13 +6132,13 @@
         <v>74</v>
       </c>
       <c r="E186" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F186" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G186" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -6095,10 +6158,10 @@
         <v>44602.40833333333</v>
       </c>
       <c r="D187" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E187" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G187" t="s">
         <v>8</v>
@@ -6124,13 +6187,13 @@
         <v>35</v>
       </c>
       <c r="E188" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F188" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G188" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -6150,13 +6213,13 @@
         <v>44602.40833333333</v>
       </c>
       <c r="D189" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E189" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F189" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -6176,13 +6239,13 @@
         <v>44602.40833333333</v>
       </c>
       <c r="D190" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E190" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F190" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -6202,10 +6265,10 @@
         <v>44621</v>
       </c>
       <c r="D191" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G191" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -6225,13 +6288,13 @@
         <v>126</v>
       </c>
       <c r="E192" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F192" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G192" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6251,16 +6314,16 @@
         <v>44621.48333333333</v>
       </c>
       <c r="D193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E193" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F193" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G193" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6283,13 +6346,13 @@
         <v>29</v>
       </c>
       <c r="E194" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F194" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G194" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6309,10 +6372,10 @@
         <v>44621.48333333333</v>
       </c>
       <c r="D195" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E195" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G195" t="s">
         <v>8</v>
@@ -6338,13 +6401,13 @@
         <v>35</v>
       </c>
       <c r="E196" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F196" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G196" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6364,13 +6427,13 @@
         <v>44621.48333333333</v>
       </c>
       <c r="D197" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E197" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F197" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6390,13 +6453,13 @@
         <v>44621.48333333333</v>
       </c>
       <c r="D198" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E198" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F198" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6416,10 +6479,10 @@
         <v>44656</v>
       </c>
       <c r="D199" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G199" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6439,13 +6502,13 @@
         <v>148</v>
       </c>
       <c r="E200" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F200" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G200" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6465,16 +6528,16 @@
         <v>44656.45416666667</v>
       </c>
       <c r="D201" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E201" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F201" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G201" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6494,16 +6557,16 @@
         <v>44656.45416666667</v>
       </c>
       <c r="D202" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E202" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F202" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G202" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6523,10 +6586,10 @@
         <v>44656.45416666667</v>
       </c>
       <c r="D203" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E203" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -6552,13 +6615,13 @@
         <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F204" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G204" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6578,13 +6641,13 @@
         <v>44656.45416666667</v>
       </c>
       <c r="D205" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E205" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F205" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6604,13 +6667,13 @@
         <v>44656.45416666667</v>
       </c>
       <c r="D206" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E206" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F206" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6630,10 +6693,10 @@
         <v>44767.00048611111</v>
       </c>
       <c r="D207" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G207" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6650,16 +6713,16 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D208" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E208" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F208" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G208" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6679,16 +6742,16 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D209" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E209" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F209" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G209" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6708,16 +6771,16 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D210" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E210" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F210" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G210" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6737,10 +6800,10 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D211" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E211" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G211" t="s">
         <v>8</v>
@@ -6763,16 +6826,16 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D212" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E212" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F212" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G212" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6792,13 +6855,13 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D213" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E213" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F213" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6818,13 +6881,13 @@
         <v>44767.43958333333</v>
       </c>
       <c r="D214" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E214" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F214" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6844,10 +6907,10 @@
         <v>44774.00048611111</v>
       </c>
       <c r="D215" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G215" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6864,16 +6927,16 @@
         <v>44774.52083333334</v>
       </c>
       <c r="D216" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E216" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F216" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G216" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6896,13 +6959,13 @@
         <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F217" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G217" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6922,16 +6985,16 @@
         <v>44774.52083333334</v>
       </c>
       <c r="D218" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E218" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F218" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G218" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6951,10 +7014,10 @@
         <v>44774.52083333334</v>
       </c>
       <c r="D219" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E219" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G219" t="s">
         <v>8</v>
@@ -6977,16 +7040,16 @@
         <v>44774.52083333334</v>
       </c>
       <c r="D220" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E220" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F220" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G220" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -7009,10 +7072,10 @@
         <v>43</v>
       </c>
       <c r="E221" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F221" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -7032,13 +7095,13 @@
         <v>44774.52083333334</v>
       </c>
       <c r="D222" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E222" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F222" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -7061,7 +7124,7 @@
         <v>103</v>
       </c>
       <c r="G223" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -7081,13 +7144,13 @@
         <v>21</v>
       </c>
       <c r="E224" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F224" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G224" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -7107,16 +7170,16 @@
         <v>44811.43402777778</v>
       </c>
       <c r="D225" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E225" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F225" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G225" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -7136,16 +7199,16 @@
         <v>44811.43402777778</v>
       </c>
       <c r="D226" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E226" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F226" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G226" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -7165,10 +7228,10 @@
         <v>44811.43402777778</v>
       </c>
       <c r="D227" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E227" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -7191,16 +7254,16 @@
         <v>44811.43402777778</v>
       </c>
       <c r="D228" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E228" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F228" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G228" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -7220,13 +7283,13 @@
         <v>44811.43402777778</v>
       </c>
       <c r="D229" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E229" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F229" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -7246,13 +7309,13 @@
         <v>44811.43402777778</v>
       </c>
       <c r="D230" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E230" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F230" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7275,7 +7338,7 @@
         <v>138</v>
       </c>
       <c r="G231" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7292,16 +7355,16 @@
         <v>44860.38819444444</v>
       </c>
       <c r="D232" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E232" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F232" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G232" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7324,13 +7387,13 @@
         <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F233" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G233" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7353,13 +7416,13 @@
         <v>29</v>
       </c>
       <c r="E234" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F234" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G234" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7379,10 +7442,10 @@
         <v>44860.38819444444</v>
       </c>
       <c r="D235" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E235" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G235" t="s">
         <v>8</v>
@@ -7405,16 +7468,16 @@
         <v>44860.38819444444</v>
       </c>
       <c r="D236" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E236" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F236" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G236" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7434,13 +7497,13 @@
         <v>44860.38819444444</v>
       </c>
       <c r="D237" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E237" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F237" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7460,13 +7523,13 @@
         <v>44860.38819444444</v>
       </c>
       <c r="D238" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E238" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F238" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7486,10 +7549,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D239" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G239" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7506,16 +7569,16 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D240" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E240" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F240" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G240" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7535,16 +7598,16 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D241" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E241" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F241" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G241" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7564,16 +7627,16 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D242" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E242" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F242" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G242" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7593,10 +7656,10 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D243" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E243" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G243" t="s">
         <v>8</v>
@@ -7619,16 +7682,16 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D244" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E244" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F244" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G244" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7648,13 +7711,13 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D245" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E245" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F245" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7674,13 +7737,13 @@
         <v>44886.39930555555</v>
       </c>
       <c r="D246" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E246" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F246" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7700,10 +7763,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D247" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G247" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7720,16 +7783,16 @@
         <v>44914.39166666667</v>
       </c>
       <c r="D248" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E248" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F248" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G248" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7752,13 +7815,13 @@
         <v>18</v>
       </c>
       <c r="E249" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F249" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G249" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7781,13 +7844,13 @@
         <v>50</v>
       </c>
       <c r="E250" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F250" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G250" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7807,10 +7870,10 @@
         <v>44914.39166666667</v>
       </c>
       <c r="D251" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E251" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G251" t="s">
         <v>8</v>
@@ -7833,16 +7896,16 @@
         <v>44914.39166666667</v>
       </c>
       <c r="D252" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E252" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F252" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G252" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7862,13 +7925,13 @@
         <v>44914.39166666667</v>
       </c>
       <c r="D253" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E253" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F253" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7888,13 +7951,13 @@
         <v>44914.39166666667</v>
       </c>
       <c r="D254" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E254" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F254" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7914,10 +7977,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D255" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G255" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7934,16 +7997,16 @@
         <v>44952.37708333333</v>
       </c>
       <c r="D256" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E256" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F256" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G256" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H256">
         <v>500</v>
@@ -7963,16 +8026,16 @@
         <v>44952.37708333333</v>
       </c>
       <c r="D257" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E257" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F257" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G257" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7992,16 +8055,16 @@
         <v>44952.37708333333</v>
       </c>
       <c r="D258" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="E258" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F258" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G258" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -8021,10 +8084,10 @@
         <v>44952.37708333333</v>
       </c>
       <c r="D259" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E259" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G259" t="s">
         <v>8</v>
@@ -8050,13 +8113,13 @@
         <v>51</v>
       </c>
       <c r="E260" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F260" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G260" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -8076,13 +8139,13 @@
         <v>44952.37708333333</v>
       </c>
       <c r="D261" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E261" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F261" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -8102,13 +8165,13 @@
         <v>44952.37708333333</v>
       </c>
       <c r="D262" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E262" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F262" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -8128,10 +8191,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D263" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G263" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -8148,16 +8211,16 @@
         <v>44978.42777777778</v>
       </c>
       <c r="D264" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E264" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F264" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G264" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -8177,16 +8240,16 @@
         <v>44978.42777777778</v>
       </c>
       <c r="D265" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E265" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F265" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G265" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -8209,13 +8272,13 @@
         <v>29</v>
       </c>
       <c r="E266" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F266" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G266" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -8235,10 +8298,10 @@
         <v>44978.42777777778</v>
       </c>
       <c r="D267" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E267" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G267" t="s">
         <v>8</v>
@@ -8261,16 +8324,16 @@
         <v>44978.42777777778</v>
       </c>
       <c r="D268" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E268" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F268" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G268" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -8290,13 +8353,13 @@
         <v>44978.42777777778</v>
       </c>
       <c r="D269" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E269" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F269" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8316,13 +8379,13 @@
         <v>44978.42777777778</v>
       </c>
       <c r="D270" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E270" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F270" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8345,7 +8408,7 @@
         <v>138</v>
       </c>
       <c r="G271" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8362,16 +8425,16 @@
         <v>45008.44930555556</v>
       </c>
       <c r="D272" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E272" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F272" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G272" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H272">
         <v>500</v>
@@ -8394,13 +8457,13 @@
         <v>18</v>
       </c>
       <c r="E273" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F273" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G273" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8420,16 +8483,16 @@
         <v>45008.44930555556</v>
       </c>
       <c r="D274" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E274" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F274" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G274" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8449,10 +8512,10 @@
         <v>45008.44930555556</v>
       </c>
       <c r="D275" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E275" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G275" t="s">
         <v>8</v>
@@ -8475,16 +8538,16 @@
         <v>45008.44930555556</v>
       </c>
       <c r="D276" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E276" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F276" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G276" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8504,13 +8567,13 @@
         <v>45008.44930555556</v>
       </c>
       <c r="D277" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E277" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F277" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8533,10 +8596,10 @@
         <v>114</v>
       </c>
       <c r="E278" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F278" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8556,10 +8619,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D279" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G279" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8576,16 +8639,16 @@
         <v>45027.42708333334</v>
       </c>
       <c r="D280" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E280" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F280" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G280" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8608,13 +8671,13 @@
         <v>43</v>
       </c>
       <c r="E281" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F281" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G281" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8634,16 +8697,16 @@
         <v>45027.42708333334</v>
       </c>
       <c r="D282" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="E282" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F282" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G282" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8663,10 +8726,10 @@
         <v>45027.42708333334</v>
       </c>
       <c r="D283" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E283" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G283" t="s">
         <v>8</v>
@@ -8689,16 +8752,16 @@
         <v>45027.42708333334</v>
       </c>
       <c r="D284" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E284" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F284" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G284" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8718,13 +8781,13 @@
         <v>45027.42708333334</v>
       </c>
       <c r="D285" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E285" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F285" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8744,13 +8807,13 @@
         <v>45027.42708333334</v>
       </c>
       <c r="D286" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E286" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F286" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8773,7 +8836,7 @@
         <v>138</v>
       </c>
       <c r="G287" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8790,16 +8853,16 @@
         <v>45127.49791666667</v>
       </c>
       <c r="D288" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E288" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F288" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G288" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8822,13 +8885,13 @@
         <v>18</v>
       </c>
       <c r="E289" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F289" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G289" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8851,13 +8914,13 @@
         <v>74</v>
       </c>
       <c r="E290" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F290" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G290" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8877,10 +8940,10 @@
         <v>45127.49791666667</v>
       </c>
       <c r="D291" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E291" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G291" t="s">
         <v>8</v>
@@ -8903,16 +8966,16 @@
         <v>45127.49791666667</v>
       </c>
       <c r="D292" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E292" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F292" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G292" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8932,13 +8995,13 @@
         <v>45127.49791666667</v>
       </c>
       <c r="D293" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E293" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F293" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8958,13 +9021,13 @@
         <v>45127.49791666667</v>
       </c>
       <c r="D294" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E294" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F294" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8987,7 +9050,7 @@
         <v>103</v>
       </c>
       <c r="G295" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -9004,16 +9067,16 @@
         <v>45155.43888888889</v>
       </c>
       <c r="D296" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E296" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F296" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G296" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -9036,13 +9099,13 @@
         <v>23</v>
       </c>
       <c r="E297" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F297" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G297" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -9062,16 +9125,16 @@
         <v>45155.43888888889</v>
       </c>
       <c r="D298" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E298" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F298" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G298" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -9091,10 +9154,10 @@
         <v>45155.43888888889</v>
       </c>
       <c r="D299" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E299" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G299" t="s">
         <v>8</v>
@@ -9117,16 +9180,16 @@
         <v>45155.43888888889</v>
       </c>
       <c r="D300" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E300" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F300" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G300" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -9149,10 +9212,10 @@
         <v>89</v>
       </c>
       <c r="E301" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F301" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -9172,13 +9235,13 @@
         <v>45155.43888888889</v>
       </c>
       <c r="D302" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E302" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F302" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -9201,7 +9264,7 @@
         <v>138</v>
       </c>
       <c r="G303" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -9218,16 +9281,16 @@
         <v>45197.33472222222</v>
       </c>
       <c r="D304" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E304" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F304" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G304" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -9250,13 +9313,13 @@
         <v>18</v>
       </c>
       <c r="E305" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F305" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G305" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -9276,16 +9339,16 @@
         <v>45197.33472222222</v>
       </c>
       <c r="D306" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E306" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F306" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G306" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -9305,10 +9368,10 @@
         <v>45197.33472222222</v>
       </c>
       <c r="D307" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E307" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G307" t="s">
         <v>8</v>
@@ -9331,16 +9394,16 @@
         <v>45197.33472222222</v>
       </c>
       <c r="D308" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E308" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F308" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G308" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9360,13 +9423,13 @@
         <v>45197.33472222222</v>
       </c>
       <c r="D309" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E309" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F309" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9386,13 +9449,13 @@
         <v>45197.33472222222</v>
       </c>
       <c r="D310" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E310" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F310" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9415,7 +9478,7 @@
         <v>103</v>
       </c>
       <c r="G311" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9435,13 +9498,13 @@
         <v>45</v>
       </c>
       <c r="E312" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F312" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G312" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9464,13 +9527,13 @@
         <v>18</v>
       </c>
       <c r="E313" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F313" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G313" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9490,16 +9553,16 @@
         <v>45210.47222222222</v>
       </c>
       <c r="D314" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="E314" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F314" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G314" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9519,10 +9582,10 @@
         <v>45210.47222222222</v>
       </c>
       <c r="D315" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E315" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G315" t="s">
         <v>8</v>
@@ -9545,16 +9608,16 @@
         <v>45210.47222222222</v>
       </c>
       <c r="D316" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E316" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F316" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G316" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9574,13 +9637,13 @@
         <v>45210.47222222222</v>
       </c>
       <c r="D317" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E317" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F317" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9600,13 +9663,13 @@
         <v>45210.47222222222</v>
       </c>
       <c r="D318" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E318" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F318" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9626,10 +9689,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D319" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G319" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9646,16 +9709,16 @@
         <v>45253.39027777778</v>
       </c>
       <c r="D320" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E320" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F320" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G320" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9678,13 +9741,13 @@
         <v>53</v>
       </c>
       <c r="E321" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F321" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G321" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9704,16 +9767,16 @@
         <v>45253.39027777778</v>
       </c>
       <c r="D322" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E322" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F322" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G322" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H322">
         <v>600</v>
@@ -9733,10 +9796,10 @@
         <v>45253.39027777778</v>
       </c>
       <c r="D323" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E323" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G323" t="s">
         <v>8</v>
@@ -9759,16 +9822,16 @@
         <v>45253.39027777778</v>
       </c>
       <c r="D324" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E324" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F324" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G324" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9788,13 +9851,13 @@
         <v>45253.39027777778</v>
       </c>
       <c r="D325" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E325" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F325" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9814,13 +9877,13 @@
         <v>45253.39027777778</v>
       </c>
       <c r="D326" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E326" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F326" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9840,10 +9903,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D327" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G327" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9863,13 +9926,13 @@
         <v>51</v>
       </c>
       <c r="E328" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F328" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G328" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9889,16 +9952,16 @@
         <v>45280.44375</v>
       </c>
       <c r="D329" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E329" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F329" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G329" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H329">
         <v>600</v>
@@ -9921,13 +9984,13 @@
         <v>68</v>
       </c>
       <c r="E330" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F330" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G330" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H330">
         <v>600</v>
@@ -9947,10 +10010,10 @@
         <v>45280.44375</v>
       </c>
       <c r="D331" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E331" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G331" t="s">
         <v>8</v>
@@ -9973,16 +10036,16 @@
         <v>45280.44375</v>
       </c>
       <c r="D332" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E332" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F332" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="G332" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -10002,13 +10065,13 @@
         <v>45280.44375</v>
       </c>
       <c r="D333" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E333" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F333" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H333">
         <v>600</v>
@@ -10028,19 +10091,875 @@
         <v>45280.44375</v>
       </c>
       <c r="D334" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E334" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F334" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H334">
         <v>600</v>
       </c>
       <c r="I334">
         <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>16</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D335" t="s">
+        <v>138</v>
+      </c>
+      <c r="G335" t="s">
+        <v>301</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D336" t="s">
+        <v>268</v>
+      </c>
+      <c r="E336" t="s">
+        <v>284</v>
+      </c>
+      <c r="F336" t="s">
+        <v>296</v>
+      </c>
+      <c r="G336" t="s">
+        <v>297</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+      <c r="I336">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D337" t="s">
+        <v>62</v>
+      </c>
+      <c r="E337" t="s">
+        <v>284</v>
+      </c>
+      <c r="F337" t="s">
+        <v>286</v>
+      </c>
+      <c r="G337" t="s">
+        <v>298</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D338" t="s">
+        <v>29</v>
+      </c>
+      <c r="E338" t="s">
+        <v>284</v>
+      </c>
+      <c r="F338" t="s">
+        <v>287</v>
+      </c>
+      <c r="G338" t="s">
+        <v>299</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+      <c r="I338">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D339" t="s">
+        <v>269</v>
+      </c>
+      <c r="E339" t="s">
+        <v>284</v>
+      </c>
+      <c r="G339" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D340" t="s">
+        <v>260</v>
+      </c>
+      <c r="E340" t="s">
+        <v>284</v>
+      </c>
+      <c r="F340" t="s">
+        <v>295</v>
+      </c>
+      <c r="G340" t="s">
+        <v>300</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>13</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D341" t="s">
+        <v>270</v>
+      </c>
+      <c r="E341" t="s">
+        <v>284</v>
+      </c>
+      <c r="F341" t="s">
+        <v>292</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+      <c r="I341">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45511.40694444445</v>
+      </c>
+      <c r="D342" t="s">
+        <v>271</v>
+      </c>
+      <c r="E342" t="s">
+        <v>284</v>
+      </c>
+      <c r="F342" t="s">
+        <v>293</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+      <c r="I342">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>16</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D343" t="s">
+        <v>138</v>
+      </c>
+      <c r="G343" t="s">
+        <v>301</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D344" t="s">
+        <v>272</v>
+      </c>
+      <c r="E344" t="s">
+        <v>284</v>
+      </c>
+      <c r="F344" t="s">
+        <v>294</v>
+      </c>
+      <c r="G344" t="s">
+        <v>297</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+      <c r="I344">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D345" t="s">
+        <v>18</v>
+      </c>
+      <c r="E345" t="s">
+        <v>284</v>
+      </c>
+      <c r="F345" t="s">
+        <v>286</v>
+      </c>
+      <c r="G345" t="s">
+        <v>298</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+      <c r="I345">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D346" t="s">
+        <v>105</v>
+      </c>
+      <c r="E346" t="s">
+        <v>284</v>
+      </c>
+      <c r="F346" t="s">
+        <v>287</v>
+      </c>
+      <c r="G346" t="s">
+        <v>299</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D347" t="s">
+        <v>273</v>
+      </c>
+      <c r="E347" t="s">
+        <v>284</v>
+      </c>
+      <c r="G347" t="s">
+        <v>8</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D348" t="s">
+        <v>274</v>
+      </c>
+      <c r="E348" t="s">
+        <v>284</v>
+      </c>
+      <c r="F348" t="s">
+        <v>295</v>
+      </c>
+      <c r="G348" t="s">
+        <v>300</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D349" t="s">
+        <v>275</v>
+      </c>
+      <c r="E349" t="s">
+        <v>284</v>
+      </c>
+      <c r="F349" t="s">
+        <v>292</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>14</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45558.42222222222</v>
+      </c>
+      <c r="D350" t="s">
+        <v>276</v>
+      </c>
+      <c r="E350" t="s">
+        <v>284</v>
+      </c>
+      <c r="F350" t="s">
+        <v>293</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D351" t="s">
+        <v>138</v>
+      </c>
+      <c r="G351" t="s">
+        <v>301</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D352" t="s">
+        <v>204</v>
+      </c>
+      <c r="E352" t="s">
+        <v>284</v>
+      </c>
+      <c r="F352" t="s">
+        <v>294</v>
+      </c>
+      <c r="G352" t="s">
+        <v>297</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D353" t="s">
+        <v>49</v>
+      </c>
+      <c r="E353" t="s">
+        <v>284</v>
+      </c>
+      <c r="F353" t="s">
+        <v>286</v>
+      </c>
+      <c r="G353" t="s">
+        <v>298</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D354" t="s">
+        <v>277</v>
+      </c>
+      <c r="E354" t="s">
+        <v>284</v>
+      </c>
+      <c r="F354" t="s">
+        <v>287</v>
+      </c>
+      <c r="G354" t="s">
+        <v>299</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D355" t="s">
+        <v>278</v>
+      </c>
+      <c r="E355" t="s">
+        <v>284</v>
+      </c>
+      <c r="G355" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>15</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D356" t="s">
+        <v>260</v>
+      </c>
+      <c r="E356" t="s">
+        <v>284</v>
+      </c>
+      <c r="F356" t="s">
+        <v>295</v>
+      </c>
+      <c r="G356" t="s">
+        <v>300</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D357" t="s">
+        <v>279</v>
+      </c>
+      <c r="E357" t="s">
+        <v>284</v>
+      </c>
+      <c r="F357" t="s">
+        <v>292</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45587.42222222222</v>
+      </c>
+      <c r="D358" t="s">
+        <v>250</v>
+      </c>
+      <c r="E358" t="s">
+        <v>284</v>
+      </c>
+      <c r="F358" t="s">
+        <v>293</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D359" t="s">
+        <v>280</v>
+      </c>
+      <c r="G359" t="s">
+        <v>301</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" t="s">
+        <v>284</v>
+      </c>
+      <c r="F360" t="s">
+        <v>294</v>
+      </c>
+      <c r="G360" t="s">
+        <v>297</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D361" t="s">
+        <v>281</v>
+      </c>
+      <c r="E361" t="s">
+        <v>284</v>
+      </c>
+      <c r="F361" t="s">
+        <v>286</v>
+      </c>
+      <c r="G361" t="s">
+        <v>298</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>12</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D362" t="s">
+        <v>74</v>
+      </c>
+      <c r="E362" t="s">
+        <v>284</v>
+      </c>
+      <c r="F362" t="s">
+        <v>287</v>
+      </c>
+      <c r="G362" t="s">
+        <v>299</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D363" t="s">
+        <v>282</v>
+      </c>
+      <c r="E363" t="s">
+        <v>284</v>
+      </c>
+      <c r="G363" t="s">
+        <v>8</v>
+      </c>
+      <c r="H363">
+        <v>500</v>
+      </c>
+      <c r="I363">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>15</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D364" t="s">
+        <v>260</v>
+      </c>
+      <c r="E364" t="s">
+        <v>284</v>
+      </c>
+      <c r="F364" t="s">
+        <v>295</v>
+      </c>
+      <c r="G364" t="s">
+        <v>300</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D365" t="s">
+        <v>283</v>
+      </c>
+      <c r="E365" t="s">
+        <v>284</v>
+      </c>
+      <c r="F365" t="s">
+        <v>292</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>14</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45636.40972222222</v>
+      </c>
+      <c r="D366" t="s">
+        <v>90</v>
+      </c>
+      <c r="E366" t="s">
+        <v>284</v>
+      </c>
+      <c r="F366" t="s">
+        <v>293</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>9.73</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/data/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -64,7 +64,7 @@
     <t>Nitrate Nitrogen (NO3)</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.1500</t>
